--- a/teaching/traditional_assets/database/data/bermuda/bermuda_investments_asset_management.xlsx
+++ b/teaching/traditional_assets/database/data/bermuda/bermuda_investments_asset_management.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ3"/>
+  <dimension ref="A1:AQ5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,112 +591,121 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.9059999999999999</v>
+        <v>0.33195</v>
+      </c>
+      <c r="E2">
+        <v>0.3567</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.9017059301380991</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.9017059301380991</v>
       </c>
       <c r="I2">
-        <v>0.8856837606837608</v>
+        <v>0.888302193338749</v>
       </c>
       <c r="J2">
-        <v>0.8856837606837608</v>
+        <v>0.8876927972994816</v>
       </c>
       <c r="K2">
-        <v>166.7</v>
+        <v>225.4</v>
       </c>
       <c r="L2">
-        <v>0.8904914529914529</v>
+        <v>0.9155158407798537</v>
       </c>
       <c r="M2">
-        <v>12.675</v>
+        <v>39.29</v>
       </c>
       <c r="N2">
-        <v>0.01801449687322342</v>
+        <v>0.01653271617925521</v>
       </c>
       <c r="O2">
-        <v>0.07603479304139173</v>
+        <v>0.1743123336291038</v>
       </c>
       <c r="P2">
-        <v>11.7</v>
+        <v>11.1</v>
       </c>
       <c r="Q2">
-        <v>0.01662876634451393</v>
+        <v>0.00467073427309068</v>
       </c>
       <c r="R2">
-        <v>0.07018596280743851</v>
+        <v>0.04924578527062999</v>
       </c>
       <c r="S2">
-        <v>0.9749999999999996</v>
+        <v>28.19</v>
       </c>
       <c r="T2">
-        <v>0.0769230769230769</v>
+        <v>0.7174853652328836</v>
       </c>
       <c r="U2">
-        <v>138.8</v>
+        <v>406.54</v>
       </c>
       <c r="V2">
-        <v>0.1972711768050029</v>
+        <v>0.1710666947191248</v>
       </c>
       <c r="W2">
-        <v>0.238483547925608</v>
+        <v>0.1072421714423891</v>
       </c>
       <c r="X2">
-        <v>0.05235614419540459</v>
+        <v>0.03976723973352582</v>
       </c>
       <c r="Y2">
-        <v>0.1861274037302034</v>
+        <v>0.06747493170886325</v>
       </c>
       <c r="Z2">
-        <v>0.3733546071001196</v>
+        <v>0.1527949308326765</v>
       </c>
       <c r="AA2">
-        <v>0.3306741124850419</v>
+        <v>0.1051866918494842</v>
       </c>
       <c r="AB2">
-        <v>0.05235614419540459</v>
+        <v>0.03976573241406863</v>
       </c>
       <c r="AC2">
-        <v>0.2783179682896373</v>
+        <v>0.06542654672530393</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>89.476</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>89.476</v>
       </c>
       <c r="AG2">
-        <v>-138.8</v>
+        <v>-317.064</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>0.03628421363387153</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>0.04226395273480971</v>
       </c>
       <c r="AJ2">
-        <v>-0.2457507082152975</v>
+        <v>-0.153956714362573</v>
       </c>
       <c r="AK2">
-        <v>-0.2016562545401715</v>
+        <v>-0.1853594428880772</v>
       </c>
       <c r="AL2">
-        <v>0.494</v>
+        <v>5.005</v>
       </c>
       <c r="AM2">
-        <v>0.494</v>
+        <v>4.487</v>
+      </c>
+      <c r="AN2">
+        <v>0.6115926179084074</v>
       </c>
       <c r="AO2">
-        <v>335.6275303643725</v>
+        <v>43.6963036963037</v>
+      </c>
+      <c r="AP2">
+        <v>-2.167218045112782</v>
       </c>
       <c r="AQ2">
-        <v>335.6275303643725</v>
+        <v>48.74080677512815</v>
       </c>
     </row>
     <row r="3">
@@ -707,121 +716,377 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>VNV Global AB (publ) (OM:VNV)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Investments &amp; Asset Management</t>
+        </is>
+      </c>
+      <c r="D3">
+        <v>-0.0281</v>
+      </c>
+      <c r="E3">
+        <v>-0.0506</v>
+      </c>
+      <c r="G3">
+        <v>1.259796806966618</v>
+      </c>
+      <c r="H3">
+        <v>1.259796806966618</v>
+      </c>
+      <c r="I3">
+        <v>0.920899854862119</v>
+      </c>
+      <c r="J3">
+        <v>0.9190045784742303</v>
+      </c>
+      <c r="K3">
+        <v>116.9</v>
+      </c>
+      <c r="L3">
+        <v>0.8483309143686502</v>
+      </c>
+      <c r="M3">
+        <v>-0</v>
+      </c>
+      <c r="N3">
+        <v>-0</v>
+      </c>
+      <c r="O3">
+        <v>-0</v>
+      </c>
+      <c r="P3">
+        <v>-0</v>
+      </c>
+      <c r="Q3">
+        <v>-0</v>
+      </c>
+      <c r="R3">
+        <v>-0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="V3">
+        <v>0.05997916356600684</v>
+      </c>
+      <c r="W3">
+        <v>0.1696169471851422</v>
+      </c>
+      <c r="X3">
+        <v>0.04178659026043699</v>
+      </c>
+      <c r="Y3">
+        <v>0.1278303569247052</v>
+      </c>
+      <c r="Z3">
+        <v>0.2028588673467885</v>
+      </c>
+      <c r="AA3">
+        <v>0.1864282278757952</v>
+      </c>
+      <c r="AB3">
+        <v>0.04125685128795706</v>
+      </c>
+      <c r="AC3">
+        <v>0.1451713765878382</v>
+      </c>
+      <c r="AD3">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="AG3">
+        <v>8.800000000000011</v>
+      </c>
+      <c r="AH3">
+        <v>0.06237789561819704</v>
+      </c>
+      <c r="AI3">
+        <v>0.09011188388267312</v>
+      </c>
+      <c r="AJ3">
+        <v>0.006505988466656818</v>
+      </c>
+      <c r="AK3">
+        <v>0.009654415798134955</v>
+      </c>
+      <c r="AL3">
+        <v>5</v>
+      </c>
+      <c r="AM3">
+        <v>4.555</v>
+      </c>
+      <c r="AN3">
+        <v>0.7044917257683215</v>
+      </c>
+      <c r="AO3">
+        <v>25.38</v>
+      </c>
+      <c r="AP3">
+        <v>0.0693459416863673</v>
+      </c>
+      <c r="AQ3">
+        <v>27.85949506037322</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Bermuda</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>Oakley Capital Investments Limited (LSE:OCI)</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="D3">
-        <v>0.9059999999999999</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0.8856837606837608</v>
-      </c>
-      <c r="J3">
-        <v>0.8856837606837608</v>
-      </c>
-      <c r="K3">
-        <v>166.7</v>
-      </c>
-      <c r="L3">
-        <v>0.8904914529914529</v>
-      </c>
-      <c r="M3">
-        <v>12.675</v>
-      </c>
-      <c r="N3">
-        <v>0.01801449687322342</v>
-      </c>
-      <c r="O3">
-        <v>0.07603479304139173</v>
-      </c>
-      <c r="P3">
-        <v>11.7</v>
-      </c>
-      <c r="Q3">
-        <v>0.01662876634451393</v>
-      </c>
-      <c r="R3">
-        <v>0.07018596280743851</v>
-      </c>
-      <c r="S3">
-        <v>0.9749999999999996</v>
-      </c>
-      <c r="T3">
-        <v>0.0769230769230769</v>
-      </c>
-      <c r="U3">
-        <v>138.8</v>
-      </c>
-      <c r="V3">
-        <v>0.1972711768050029</v>
-      </c>
-      <c r="W3">
-        <v>0.238483547925608</v>
-      </c>
-      <c r="X3">
-        <v>0.05235614419540459</v>
-      </c>
-      <c r="Y3">
-        <v>0.1861274037302034</v>
-      </c>
-      <c r="Z3">
-        <v>0.3733546071001196</v>
-      </c>
-      <c r="AA3">
-        <v>0.3306741124850419</v>
-      </c>
-      <c r="AB3">
-        <v>0.05235614419540459</v>
-      </c>
-      <c r="AC3">
-        <v>0.2783179682896373</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>-138.8</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>-0.2457507082152975</v>
-      </c>
-      <c r="AK3">
-        <v>-0.2016562545401715</v>
-      </c>
-      <c r="AL3">
-        <v>0.494</v>
-      </c>
-      <c r="AM3">
-        <v>0.494</v>
-      </c>
-      <c r="AO3">
-        <v>335.6275303643725</v>
-      </c>
-      <c r="AQ3">
-        <v>335.6275303643725</v>
+      <c r="D4">
+        <v>0.6920000000000001</v>
+      </c>
+      <c r="E4">
+        <v>0.764</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0.8527679623085984</v>
+      </c>
+      <c r="J4">
+        <v>0.8527679623085984</v>
+      </c>
+      <c r="K4">
+        <v>88.7</v>
+      </c>
+      <c r="L4">
+        <v>1.044758539458186</v>
+      </c>
+      <c r="M4">
+        <v>38</v>
+      </c>
+      <c r="N4">
+        <v>0.05379388448471122</v>
+      </c>
+      <c r="O4">
+        <v>0.4284103720405862</v>
+      </c>
+      <c r="P4">
+        <v>11.1</v>
+      </c>
+      <c r="Q4">
+        <v>0.01571347678369196</v>
+      </c>
+      <c r="R4">
+        <v>0.125140924464487</v>
+      </c>
+      <c r="S4">
+        <v>26.9</v>
+      </c>
+      <c r="T4">
+        <v>0.7078947368421052</v>
+      </c>
+      <c r="U4">
+        <v>323.8</v>
+      </c>
+      <c r="V4">
+        <v>0.4583805209513024</v>
+      </c>
+      <c r="W4">
+        <v>0.1072421714423891</v>
+      </c>
+      <c r="X4">
+        <v>0.03976014512418032</v>
+      </c>
+      <c r="Y4">
+        <v>0.06748202631820875</v>
+      </c>
+      <c r="Z4">
+        <v>0.1233473775969781</v>
+      </c>
+      <c r="AA4">
+        <v>0.1051866918494842</v>
+      </c>
+      <c r="AB4">
+        <v>0.03976014512418032</v>
+      </c>
+      <c r="AC4">
+        <v>0.06542654672530393</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>-323.8</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>-0.846314688970204</v>
+      </c>
+      <c r="AK4">
+        <v>-0.6076186901857759</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Bermuda</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>VEF Ltd. (OM:VEFL SDB)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Investments &amp; Asset Management</t>
+        </is>
+      </c>
+      <c r="G5">
+        <v>2.059574468085106</v>
+      </c>
+      <c r="H5">
+        <v>2.059574468085106</v>
+      </c>
+      <c r="I5">
+        <v>0.825531914893617</v>
+      </c>
+      <c r="J5">
+        <v>0.825531914893617</v>
+      </c>
+      <c r="K5">
+        <v>19.8</v>
+      </c>
+      <c r="L5">
+        <v>0.8425531914893617</v>
+      </c>
+      <c r="M5">
+        <v>1.29</v>
+      </c>
+      <c r="N5">
+        <v>0.003953417100827459</v>
+      </c>
+      <c r="O5">
+        <v>0.06515151515151515</v>
+      </c>
+      <c r="P5">
+        <v>-0</v>
+      </c>
+      <c r="Q5">
+        <v>-0</v>
+      </c>
+      <c r="R5">
+        <v>-0</v>
+      </c>
+      <c r="S5">
+        <v>1.29</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>2.14</v>
+      </c>
+      <c r="V5">
+        <v>0.006558381857186638</v>
+      </c>
+      <c r="W5">
+        <v>0.07955002008838891</v>
+      </c>
+      <c r="X5">
+        <v>0.03976723973352582</v>
+      </c>
+      <c r="Y5">
+        <v>0.03978278035486309</v>
+      </c>
+      <c r="Z5">
+        <v>0.09642212374856393</v>
+      </c>
+      <c r="AA5">
+        <v>0.07959954045626128</v>
+      </c>
+      <c r="AB5">
+        <v>0.03976573241406863</v>
+      </c>
+      <c r="AC5">
+        <v>0.03983380804219264</v>
+      </c>
+      <c r="AD5">
+        <v>0.076</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0.076</v>
+      </c>
+      <c r="AG5">
+        <v>-2.064</v>
+      </c>
+      <c r="AH5">
+        <v>0.0002328602593327941</v>
+      </c>
+      <c r="AI5">
+        <v>0.0002832903427813147</v>
+      </c>
+      <c r="AJ5">
+        <v>-0.006365733601450796</v>
+      </c>
+      <c r="AK5">
+        <v>-0.007755433312291461</v>
+      </c>
+      <c r="AL5">
+        <v>0.005</v>
+      </c>
+      <c r="AM5">
+        <v>-0.06799999999999999</v>
+      </c>
+      <c r="AN5">
+        <v>0.003917525773195876</v>
+      </c>
+      <c r="AO5">
+        <v>3880</v>
+      </c>
+      <c r="AP5">
+        <v>-0.1063917525773196</v>
+      </c>
+      <c r="AQ5">
+        <v>-285.2941176470588</v>
       </c>
     </row>
   </sheetData>
